--- a/ExcelPython1.xlsx
+++ b/ExcelPython1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Python com Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D8C08-953D-4F3B-B94F-0A005333B3EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4096B0CB-6805-4420-9CA8-F393C8FF4A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{609A5DA8-9B1F-4010-9E90-147D6070387A}"/>
   </bookViews>
@@ -25,25 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Primeiro Exemplo Excel com Python</t>
+    <t>Base</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Gráfico da Potência</t>
+    <t>Potencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +61,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,12 +86,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,20 +99,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,33 +160,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -177,17 +169,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -221,7 +202,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$A$4:$A$18</c:f>
+              <c:f>Planilha1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -275,7 +256,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$B$4:$B$18</c:f>
+              <c:f>Planilha1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -329,6 +310,27 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DA1B-42D0-91B8-4038C7627EC5}"/>
             </c:ext>
@@ -1075,16 +1077,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1409,174 +1411,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E207405B-9F1B-457B-A49C-5FFE91BB441E}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>A2^2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1">
         <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>A3^2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <f>A4^2</f>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="shared" ref="B5:B18" si="0">A5^2</f>
+      <c r="A5" s="1">
         <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f>A5^2</f>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f>A6^2</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f>A7^2</f>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f>A8^2</f>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f>A9^2</f>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f>A10^2</f>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <f t="shared" si="0"/>
-        <v>64</v>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f>A11^2</f>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <f t="shared" si="0"/>
-        <v>81</v>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f>A12^2</f>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f>A13^2</f>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" si="0"/>
-        <v>121</v>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f>A14^2</f>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
-        <v>144</v>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f>A15^2</f>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16" si="0">A16^2</f>
         <v>225</v>
       </c>
     </row>
